--- a/data/trans_bre/P28B_1_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P28B_1_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -636,52 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,01</t>
+          <t>5,89</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,84</t>
+          <t>5,81</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,31</t>
+          <t>6,92</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,69</t>
+          <t>5,6</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,79</t>
+          <t>7,8</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>14,22%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>24,81%</t>
+          <t>24,56%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>39,19%</t>
+          <t>36,64%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>37,68%</t>
+          <t>36,47%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>38,6%</t>
+          <t>38,63%</t>
         </is>
       </c>
     </row>
@@ -694,52 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,74; 11,42</t>
+          <t>0,28; 11,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,55; 10,89</t>
+          <t>-0,16; 10,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,31; 12,16</t>
+          <t>2,38; 11,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,16; 9,58</t>
+          <t>1,11; 9,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,76; 12,22</t>
+          <t>3,32; 12,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 30,28</t>
+          <t>0,63; 30,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,89; 51,85</t>
+          <t>-0,68; 51,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,01; 75,34</t>
+          <t>10,38; 67,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,46; 75,89</t>
+          <t>4,95; 73,95</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,04; 69,67</t>
+          <t>14,88; 66,45</t>
         </is>
       </c>
     </row>
@@ -756,52 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,89</t>
+          <t>13,8</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,28</t>
+          <t>5,07</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,58</t>
+          <t>10,77</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,24</t>
+          <t>8,58</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>14,83</t>
+          <t>14,81</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>45,18%</t>
+          <t>44,93%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>24,74%</t>
+          <t>22,79%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>80,36%</t>
+          <t>81,2%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>61,99%</t>
+          <t>64,03%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>79,85%</t>
+          <t>79,67%</t>
         </is>
       </c>
     </row>
@@ -814,52 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,86; 19,21</t>
+          <t>7,99; 19,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 10,86</t>
+          <t>-1,48; 10,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,77; 14,79</t>
+          <t>5,83; 14,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,98; 13,05</t>
+          <t>2,77; 13,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,72; 24,01</t>
+          <t>4,86; 23,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,61; 69,65</t>
+          <t>23,75; 71,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 58,74</t>
+          <t>-6,76; 56,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>37,16; 136,68</t>
+          <t>36,64; 133,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,73; 130,2</t>
+          <t>13,73; 124,58</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,68; 168,44</t>
+          <t>14,02; 161,02</t>
         </is>
       </c>
     </row>
@@ -876,22 +876,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,51</t>
+          <t>13,52</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,37</t>
+          <t>10,04</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,05</t>
+          <t>9,13</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,96</t>
+          <t>6,45</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -901,22 +901,22 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>49,28%</t>
+          <t>49,32%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>64,19%</t>
+          <t>52,17%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>51,57%</t>
+          <t>52,87%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>64,65%</t>
+          <t>57,51%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -934,22 +934,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,53; 24,74</t>
+          <t>2,75; 24,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 21,64</t>
+          <t>-7,63; 20,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 18,47</t>
+          <t>0,09; 18,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 14,94</t>
+          <t>-2,06; 14,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -959,22 +959,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,97; 124,54</t>
+          <t>7,47; 115,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-22,08; 181,39</t>
+          <t>-31,04; 165,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 136,47</t>
+          <t>-0,35; 150,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 199,15</t>
+          <t>-18,21; 189,28</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -996,22 +996,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,18</t>
+          <t>10,09</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,34</t>
+          <t>6,07</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,87</t>
+          <t>8,76</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,88</t>
+          <t>6,91</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1021,22 +1021,22 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>28,75%</t>
+          <t>28,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>28,92%</t>
+          <t>26,93%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>54,35%</t>
+          <t>53,29%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>49,66%</t>
+          <t>49,07%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1054,52 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,1; 14,01</t>
+          <t>6,38; 13,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,21; 9,85</t>
+          <t>1,94; 9,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,16; 12,07</t>
+          <t>5,47; 11,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,7; 10,0</t>
+          <t>3,57; 9,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,99; 13,2</t>
+          <t>5,15; 13,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,78; 42,41</t>
+          <t>16,77; 41,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,32; 50,25</t>
+          <t>7,75; 48,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>32,21; 81,76</t>
+          <t>30,88; 77,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,61; 80,99</t>
+          <t>20,91; 80,45</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>23,28; 74,98</t>
+          <t>21,85; 75,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P28B_1_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P28B_1_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>5,89</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>5,81</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>6,92</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>5,6</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>7,8</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>14,22%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>24,56%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>36,64%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>36,47%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>38,63%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>6.008001316142036</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>6.131838015256777</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>6.821101033219809</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>5.269276181731383</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>7.79900525497334</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.1450451501886596</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.2634651583483484</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.3576592801980034</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.3418432261769657</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.3863308263209557</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,28; 11,41</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,16; 10,66</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2,38; 11,24</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>1,11; 9,69</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>3,32; 12,16</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,63; 30,25</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-0,68; 51,82</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>10,38; 67,36</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>4,95; 73,95</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>14,88; 66,45</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0.8446020673087781</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.1555269695125262</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>2.231981430149265</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.7478687831596309</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>3.320979437994628</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.01832070129495954</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.00589271137046391</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.09510638339248693</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.04029689626482195</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.1488082633707168</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>11.49374498853308</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>11.11573671435639</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>11.25474258828167</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>9.187126648504083</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>12.16102436329115</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.3040557067979756</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.5446626488019295</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.6666356810909628</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.7112314117557332</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.6645030401595533</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>13,8</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,07</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>10,77</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>8,58</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>14,81</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>44,93%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>22,79%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>81,2%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>64,03%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>79,67%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>7,99; 19,69</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,48; 10,83</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>5,83; 14,98</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>2,77; 13,79</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>4,86; 23,01</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>23,75; 71,33</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-6,76; 56,36</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>36,64; 133,83</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>13,73; 124,58</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>14,02; 161,02</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>13.88656328233699</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>4.732051181639791</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>10.6694142745706</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>8.260546566338455</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>14.80969076905094</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.4514910368933395</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.2180078821938805</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.81380640241925</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.6087938574390647</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.796683435454161</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>13,52</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>10,04</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>9,13</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>6,45</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>49,32%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>52,17%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>52,87%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>57,51%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>8.302377902774472</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-2.334483344612365</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>5.882217762166865</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>2.10592309939819</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>4.858127073865366</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.253080313169336</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.09244762167940342</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.3649341368053918</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.1082517589731084</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.1402120989852333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>2,75; 24,75</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-7,63; 20,15</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,09; 18,86</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-2,06; 14,32</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>7,47; 115,12</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-31,04; 165,64</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-0,35; 150,02</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-18,21; 189,28</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>20.15826471033743</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>10.14070399125549</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>14.9725715463584</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>13.34389252650361</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>23.01343586410646</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.7569054554207065</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.544759296936055</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.347337773250937</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.229735059074979</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.610195169704739</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +879,221 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>10,09</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>6,07</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>8,76</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>6,91</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>9,35</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>28,51%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>26,93%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>53,29%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>49,07%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>47,2%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>13.51925462440399</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>12.20115590619286</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>8.590586319312562</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>7.152570547761418</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="6" t="n">
+        <v>0.4931745160773119</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.7104267690080089</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.4836198218449409</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.6708926196612643</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>6,38; 13,96</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>1,94; 9,76</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>5,47; 11,52</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>3,57; 9,96</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>5,15; 13,33</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>16,77; 41,95</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>7,75; 48,52</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>30,88; 77,4</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>20,91; 80,45</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>21,85; 75,4</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>2.749694256842565</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-4.316931080337</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.4834547916881823</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-1.382396266825251</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="6" t="n">
+        <v>0.07471821162656019</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.2234779312279574</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.03002266855108472</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.1328333720974459</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>24.75442500755457</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>22.21827196182905</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>18.23236010197823</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>14.97736489382454</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="6" t="n">
+        <v>1.151211337483388</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>2.015934273475894</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.366658376138598</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>2.038961600684591</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>10.18017380848035</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>6.365591206284479</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>8.615210258617431</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>6.698663854652287</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>9.346190893602882</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.2874102434256541</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.2907641653039693</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.5213748441668399</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.4752891492378573</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.4719553814176107</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>6.348752476432215</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>2.194266450216676</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>5.294020417471429</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>3.45605389433904</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>5.151219220417698</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.166966431346228</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.08651094821400865</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.2906242881972115</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.1938587108191964</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.2184643123719081</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>13.9361482715506</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>10.1793043317197</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>11.33328475290597</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>9.702213539048822</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>13.32909885512511</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.4207870577587455</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.5178252197244506</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.7603433080732404</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.7800730109197127</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.753956595631331</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1112,13 +1101,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
